--- a/xlsx/krsk.xlsx
+++ b/xlsx/krsk.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S538"/>
+  <dimension ref="A1:S539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7214,6 +7214,14 @@
           <t>http://autonew-krr.ru/avto-new/geely/ex5/</t>
         </is>
       </c>
+      <c r="P146" t="n">
+        <v>3799990</v>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>https://krasnoyarsk.carso.ru/geely/ex5</t>
+        </is>
+      </c>
       <c r="R146" t="n">
         <v>3277992</v>
       </c>
@@ -16409,7 +16417,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Vesta SW Sportline New</t>
+          <t>Vesta SW Sportline</t>
         </is>
       </c>
       <c r="D344" t="n">
@@ -24356,6 +24364,39 @@
       <c r="Q538" t="inlineStr">
         <is>
           <t>https://krasnoyarsk.carso.ru/zotye/t600</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>Новая машина, необходимо назначить id</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>forthing</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>venuciav-online</t>
+        </is>
+      </c>
+      <c r="D539" t="n">
+        <v>1540000</v>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>https://krasnoyarsk.carso.ru/forthing/venucia-v-online</t>
+        </is>
+      </c>
+      <c r="P539" t="n">
+        <v>1540000</v>
+      </c>
+      <c r="Q539" t="inlineStr">
+        <is>
+          <t>https://krasnoyarsk.carso.ru/forthing/venucia-v-online</t>
         </is>
       </c>
     </row>

--- a/xlsx/krsk.xlsx
+++ b/xlsx/krsk.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S540"/>
+  <dimension ref="A1:U540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,6 +517,16 @@
           <t>autonew-krr.ru</t>
         </is>
       </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>sibauto-official.ru_price</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>sibauto-official.ru</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -830,11 +840,11 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1780000</v>
+        <v>1040000</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://krsk-auto.ru/auto/baic/x55/suv-1gen</t>
+          <t>https://krasnoyarsk.carso.ru/baic/x55</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -854,7 +864,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>2120000</v>
+        <v>1040000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -887,11 +897,11 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1900000</v>
+        <v>1500000</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://krsk-auto.ru/auto/baic/x7/suv-1gen</t>
+          <t>https://krasnoyarsk.carso.ru/baic/x7</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -911,7 +921,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>2250000</v>
+        <v>1500000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -960,7 +970,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2550000</v>
+        <v>2150000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1050,7 +1060,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>935990</v>
+        <v>735990</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -2625,11 +2635,11 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1549900</v>
+        <v>1099900</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://car-avangard.ru/cars/chery/arrizo_8/</t>
+          <t>https://krasnoyarsk.carso.ru/chery/arrizo8</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2657,7 +2667,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1799900</v>
+        <v>1099900</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3859,11 +3869,11 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>2915940</v>
+        <v>2119900</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://krsk-auto.ru/auto/chery/tiggo-8-pro-e+/SUV_5D</t>
+          <t>https://krasnoyarsk.carso.ru/chery/tiggo-8pro-e+</t>
         </is>
       </c>
       <c r="N70" t="n">
@@ -3875,7 +3885,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3119900</v>
+        <v>2119900</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -4713,11 +4723,11 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1670000</v>
+        <v>1300000</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://car-avangard.ru/cars/dongfeng/dfsk_ix5/</t>
+          <t>https://krasnoyarsk.carso.ru/dongfeng/ix5</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -4729,7 +4739,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>1900000</v>
+        <v>1300000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -4762,11 +4772,11 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2690000</v>
+        <v>2050000</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://car-avangard.ru/cars/dongfeng/dfsk_ix7/</t>
+          <t>https://krasnoyarsk.carso.ru/dongfeng/ix7</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -4778,7 +4788,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>2950000</v>
+        <v>2050000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -4975,11 +4985,11 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1935000</v>
+        <v>1719900</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://avangard-24.ru/vehicles/exeed/lx_suv</t>
+          <t>https://krasnoyarsk.carso.ru/cheryexeed/lx</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -5007,7 +5017,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>1969900</v>
+        <v>1719900</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -5114,11 +5124,11 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>2700000</v>
+        <v>2420000</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://avangard-24.ru/vehicles/exeed/rx_suv-1gen</t>
+          <t>https://krasnoyarsk.carso.ru/cheryexeed/rx</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -5146,7 +5156,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3570000</v>
+        <v>2420000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -5179,11 +5189,11 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1619900</v>
+        <v>1916900</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://krasnoyarsk.carso.ru/cheryexeed/txl</t>
+          <t>http://autonew-krr.ru/avto-new/exeed/txl/</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -5211,7 +5221,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>1619900</v>
+        <v>2019900</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -5293,11 +5303,11 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>3029900</v>
+        <v>2999900</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://car-avangard.ru/cars/exeed/vx/</t>
+          <t>https://krasnoyarsk.carso.ru/cheryexeed/vx</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -5325,7 +5335,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3479900</v>
+        <v>2999900</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -5571,7 +5581,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>2440000</v>
+        <v>1640000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -5604,15 +5614,15 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1997992</v>
+        <v>1660000</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>http://autonew-krr.ru/avto-new/faw/bestune_b70_new/</t>
+          <t>https://krasnoyarsk.carso.ru/faw/bestune-b70-new</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>2600000</v>
+        <v>1660000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -5669,7 +5679,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>2401000</v>
+        <v>1501000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -5726,7 +5736,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>2854000</v>
+        <v>1604000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -5759,11 +5769,11 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1779990</v>
+        <v>1750000</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://krsk-auto.ru/auto/faw/bestune-t90/suv-1gen</t>
+          <t>https://krasnoyarsk.carso.ru/faw/t90</t>
         </is>
       </c>
       <c r="N114" t="n">
@@ -5775,7 +5785,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>2950000</v>
+        <v>1750000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -5890,7 +5900,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>3063000</v>
+        <v>1763000</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -5898,7 +5908,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3063000</v>
+        <v>1763000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9530,7 +9540,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>987000</v>
+        <v>737000</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -9555,11 +9565,11 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>849000</v>
+        <v>839000</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://krsk-auto.ru/auto/hyundai/creta-new/cuv</t>
+          <t>https://krasnoyarsk.carso.ru/hyundai/creta-new</t>
         </is>
       </c>
       <c r="F198" t="n">
@@ -9579,7 +9589,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>1189000</v>
+        <v>839000</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -9825,7 +9835,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>4604999</v>
+        <v>4004999</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -9981,11 +9991,11 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>1869400</v>
+        <v>1619000</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>https://car-avangard.ru/cars/hyundai/santa_fe_old/</t>
+          <t>https://krasnoyarsk.carso.ru/hyundai/santa-fe</t>
         </is>
       </c>
       <c r="F208" t="n">
@@ -10005,7 +10015,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>2719000</v>
+        <v>1619000</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -10202,7 +10212,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>975000</v>
+        <v>875000</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -10300,7 +10310,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>1719000</v>
+        <v>1319000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -10415,11 +10425,11 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>1519000</v>
+        <v>1399000</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>https://krsk-auto.ru/auto/hyundai/tucson-new/cuv</t>
+          <t>https://krasnoyarsk.carso.ru/hyundai/tucson-new</t>
         </is>
       </c>
       <c r="N218" t="n">
@@ -10431,7 +10441,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>1799000</v>
+        <v>1399000</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -12670,11 +12680,11 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>2249900</v>
+        <v>2104900</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>https://car-avangard.ru/cars/kia/carnival/</t>
+          <t>https://krasnoyarsk.carso.ru/kia/%D1%81arnival</t>
         </is>
       </c>
       <c r="F265" t="n">
@@ -12694,7 +12704,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>4104900</v>
+        <v>2104900</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -12743,7 +12753,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>1345370</v>
+        <v>1045370</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -12932,7 +12942,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>1397530</v>
+        <v>1097530</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -13014,11 +13024,11 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>1204900</v>
+        <v>1134900</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>https://krsk-auto.ru/auto/kia/cerato-new/sed</t>
+          <t>https://krasnoyarsk.carso.ru/kia/cerato-new</t>
         </is>
       </c>
       <c r="N273" t="n">
@@ -13030,7 +13040,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>1434900</v>
+        <v>1134900</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -13194,7 +13204,7 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>4169900</v>
+        <v>3769900</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -13202,7 +13212,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>4169900</v>
+        <v>3769900</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -13284,7 +13294,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>694900</v>
+        <v>604900</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -13547,7 +13557,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>1114900</v>
+        <v>814900</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -13596,7 +13606,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>1254900</v>
+        <v>854900</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -13702,7 +13712,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>1739900</v>
+        <v>1339900</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -13760,11 +13770,11 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>1669900</v>
+        <v>1179900</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>https://avangard-24.ru/vehicles/kia/sorento-new_cuv</t>
+          <t>https://krasnoyarsk.carso.ru/kia/sorento</t>
         </is>
       </c>
       <c r="F291" t="n">
@@ -13784,7 +13794,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>1779900</v>
+        <v>1179900</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -13833,7 +13843,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>2599900</v>
+        <v>1799900</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -13915,7 +13925,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>1249900</v>
+        <v>949900</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -13956,7 +13966,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>1339900</v>
+        <v>1189900</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -14005,7 +14015,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>1929900</v>
+        <v>1329900</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -14071,11 +14081,11 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>1599900</v>
+        <v>1579900</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>https://car-avangard.ru/cars/kia/new_sportage/</t>
+          <t>https://krasnoyarsk.carso.ru/kia/sportage-new</t>
         </is>
       </c>
       <c r="F298" t="n">
@@ -14087,7 +14097,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>2129900</v>
+        <v>1579900</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -14226,7 +14236,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>1814900</v>
+        <v>1314900</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
